--- a/doc/ue_ftext.xlsx
+++ b/doc/ue_ftext.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0993666-5D7D-4DCB-B59C-7FD27793ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD4026-BD3B-4B2C-B944-46A6A251CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Ftext</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +48,77 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内部包含了namespace,key,原始的字符串和多语言的displaystring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的构造函数不同的含义：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText::FText( TSharedRef&lt;ITextData, ESPMode::ThreadSafe&gt; InTextData )</t>
+  </si>
+  <si>
+    <t>: TextData(MoveTemp(InTextData))</t>
+  </si>
+  <si>
+    <t>, Flags(0)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FText::FText( FString&amp;&amp; InSourceString )</t>
+  </si>
+  <si>
+    <t>: TextData(MakeShared&lt;FTextHistory_Base, ESPMode::ThreadSafe&gt;(FTextId(), MoveTemp(InSourceString)))</t>
+  </si>
+  <si>
+    <t>FText::FText( FName InTableId, FString InKey, const EStringTableLoadingPolicy InLoadingPolicy )</t>
+  </si>
+  <si>
+    <t>: TextData(MakeShared&lt;FTextHistory_StringTableEntry, ESPMode::ThreadSafe&gt;(InTableId, MoveTemp(InKey), InLoadingPolicy))</t>
+  </si>
+  <si>
+    <t>FText::FText( FString&amp;&amp; InSourceString, const FTextKey&amp; InNamespace, const FTextKey&amp; InKey, uint32 InFlags )</t>
+  </si>
+  <si>
+    <t>: TextData(MakeShared&lt;FTextHistory_Base, ESPMode::ThreadSafe&gt;(FTextId(InNamespace, InKey), MoveTemp(InSourceString)))</t>
+  </si>
+  <si>
+    <t>, Flags(InFlags)</t>
+  </si>
+  <si>
+    <t>获取内部的多语言显示文本，根据当前语言设置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FString&amp; FText::ToString() const</t>
+  </si>
+  <si>
+    <t>Rebuild();</t>
+  </si>
+  <si>
+    <t>return TextData-&gt;GetDisplayString();</t>
+  </si>
+  <si>
+    <t>如果使用FTExt变量，那么多语言切换的时候，可以动态修改，即每次获取ToString的时候都会变成当前语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则，多语言就不会切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +137,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -98,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,22 +455,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_ftext.xlsx
+++ b/doc/ue_ftext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD4026-BD3B-4B2C-B944-46A6A251CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E865E-2AAE-4650-91DF-E7F19F083F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Ftext</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>否则，多语言就不会切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过stringtable构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过多语言的FTextLocalizationManager方式构造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D43"/>
+  <dimension ref="B3:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,69 +530,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="R27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>14</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
